--- a/target/generated-sources/data1.xlsx
+++ b/target/generated-sources/data1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" xr2:uid="{5C358481-677E-4FF7-877D-0C370A677810}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" activeTab="1" xr2:uid="{5C358481-677E-4FF7-877D-0C370A677810}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2889,6 +2890,2819 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$276</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="275"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19791666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28958333333333336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36041666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39791666666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46041666666666664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.47291666666666665</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.43125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41041666666666665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.43541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.41875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57291666666666663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54791666666666672</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57708333333333328</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58958333333333335</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.49166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.46458333333333335</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.42916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.40208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.37916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.33958333333333335</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.37916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.40208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.41249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.41875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47291666666666665</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.43541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.41458333333333336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.46250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.47708333333333336</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.43125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.43958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.45416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.46250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.42916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.43125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.39374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.38124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.41249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.42291666666666666</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.41041666666666665</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.46458333333333335</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.49791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.51041666666666663</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.50624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.50624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.49791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.49791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.50416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.51875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.47291666666666665</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.46041666666666664</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.46458333333333335</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.47083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.46041666666666664</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.46041666666666664</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.44583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.5395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.50208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.51875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.51875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.42916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.37708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.37708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.34791666666666665</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.32083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.29375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.21041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.23125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.23125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.22708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.25208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.25208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.24374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.23749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.23749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.23958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.21041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.20208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.20416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.20416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.17916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.14791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.12708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.11874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.15208333333333332</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.15208333333333332</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.15833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.15208333333333332</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.14166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.12916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.15416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.16041666666666668</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.16041666666666668</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.16041666666666668</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8.5416666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.5416666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7.7083333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7.7083333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>7.0833333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.583333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF0C-4188-9C99-F6C2D925BBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$276</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="275"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8484848484848485E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2121212121212119E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7272727272727271E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9393939393939401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15303030303030302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36515151515151517</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42878787878787877</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43636363636363634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44242424242424244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42424242424242425</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43484848484848487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43484848484848487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42575757575757578</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.37727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3984848484848485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37575757575757573</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35606060606060608</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36515151515151517</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.3984848484848485</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44242424242424244</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45151515151515154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44848484848484849</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46060606060606063</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.47272727272727272</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.45757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46060606060606063</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46060606060606063</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42575757575757578</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.40757575757575759</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.44696969696969696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.43787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.42727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.41060606060606059</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.40151515151515149</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.40303030303030302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.40757575757575759</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.39545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.3984848484848485</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.3893939393939394</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.37878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.40151515151515149</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.40454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.37424242424242427</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.39393939393939392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37575757575757573</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.35454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.3924242424242424</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.3924242424242424</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4212121212121212</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.42424242424242425</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44393939393939397</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.45909090909090911</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.45909090909090911</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4621212121212121</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4621212121212121</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.44090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.46363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.47424242424242424</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.45757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.48030303030303029</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.46969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.45303030303030301</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.45757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.50454545454545452</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.5060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.50151515151515147</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.49848484848484848</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.53030303030303028</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.53636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.52575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.53181818181818186</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.50303030303030305</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.52878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.52575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.49545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.49545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.50303030303030305</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.50303030303030305</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.52575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.50151515151515147</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.49242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.47878787878787876</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.50757575757575757</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.5060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.51212121212121209</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.50151515151515147</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.51515151515151514</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.51212121212121209</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.49242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.50151515151515147</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.52878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.52878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.53787878787878785</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.52575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.53787878787878785</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.53030303030303028</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.55757575757575761</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.55303030303030298</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.54696969696969699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.52727272727272723</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.5060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.5060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.51818181818181819</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.49545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.48939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.51363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.52121212121212124</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.53030303030303028</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.49545454545454548</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.52272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.48030303030303029</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.43787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.41060606060606059</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.38636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.38787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.35909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.37575757575757573</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.40454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.46515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.47575757575757577</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.50151515151515147</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.43787878787878787</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.44242424242424244</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.46515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.48484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.49090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.48939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.48939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.49696969696969695</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.51515151515151514</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.51969696969696966</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.53181818181818186</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.47272727272727272</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.40606060606060607</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.42272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.38181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.39696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.39696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.37575757575757573</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.37424242424242427</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.3515151515151515</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.34848484848484851</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.33787878787878789</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.33636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.32121212121212123</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.31212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.31515151515151513</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.32121212121212123</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.32424242424242422</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.33030303030303032</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.33939393939393941</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.35454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.33484848484848484</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.3575757575757576</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.37424242424242427</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.37878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.3606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.35454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.37272727272727274</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.37121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.38787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.40454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.39393939393939392</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.3984848484848485</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.38030303030303031</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.37878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.38787878787878788</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.40303030303030302</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.3924242424242424</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.37878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.37878787878787878</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.37727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.34393939393939393</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.33030303030303032</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.29242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.29242424242424242</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.27878787878787881</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.26515151515151514</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.23181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.20151515151515151</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.16060606060606061</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.15757575757575756</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.15757575757575756</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.13181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.11515151515151516</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.10303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.10151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9.5454545454545459E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.5151515151515155E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6.5151515151515155E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>5.7575757575757579E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.8787878787878789E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.8787878787878789E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.8787878787878789E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.5757575757575757E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.9696969696969695E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.9696969696969695E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.3636363636363636E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>7.575757575757576E-3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>7.575757575757576E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF0C-4188-9C99-F6C2D925BBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$276</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="275"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3333333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.24833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.21166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.21333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.23833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.26333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.21166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.19333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.17833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.16833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.17833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.18333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.26833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.29333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.31333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.32666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.31333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.29333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.26333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.25166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.25666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.25333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.25666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.26333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.24833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.24166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.27166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.27166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.24166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.22333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.22333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.25333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.21333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.20666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.20166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.20166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.22833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.22833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.23833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.27333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.23666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.22166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.25333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.26166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.22833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.22333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.21166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.22333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.24333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.23666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.22166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.23166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.27333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.28833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.27333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.34833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.33666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.34333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.36166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.35666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.35666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.42666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.47666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.45333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.45166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.42833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.42833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.39333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.42666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.42166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.42166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.45166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.44166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.43666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.46333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.44166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.43166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.43166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.43833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.42166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.44666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.44333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.47333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.47166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.45166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.44333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.45333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.41833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.41833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.42833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.40166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.33666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.31833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.29833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.19333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.18166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.12666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.10833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.10833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>6.3333333333333339E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.8333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>5.8333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.1666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.1666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.1666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.1666666666666667E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF0C-4188-9C99-F6C2D925BBA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="478922592"/>
+        <c:axId val="478922264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="478922592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478922264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478922264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478922592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2929,7 +5743,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3486,6 +6856,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>73818</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD13AC3-14C6-4588-9F92-DF346B2BAA9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3785,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A2852-534F-4402-A97C-401BD97CB6FA}">
   <dimension ref="B3:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10530,4 +13941,6347 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18F3DB5-9620-4086-99A1-E87A5E5219E3}">
+  <dimension ref="B2:H276"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H276" sqref="F2:H276"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>B2/480</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>C2/660</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>D2/600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">B3/480</f>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">C3/660</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">D3/600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.8484848484848485E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.2121212121212119E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.7272727272727271E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.1125</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.9393939393939401E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>5.6666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>5.6666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.11969696969696969</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.1393939393939394</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.12833333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1">
+        <v>89</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.15303030303030302</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.14833333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.20303030303030303</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.15333333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1">
+        <v>158</v>
+      </c>
+      <c r="D13" s="1">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.23939393939393938</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.16833333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1">
+        <v>113</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.25909090909090909</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.18833333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>147</v>
+      </c>
+      <c r="C15" s="1">
+        <v>184</v>
+      </c>
+      <c r="D15" s="1">
+        <v>117</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.27878787878787881</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>173</v>
+      </c>
+      <c r="C16" s="1">
+        <v>209</v>
+      </c>
+      <c r="D16" s="1">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>191</v>
+      </c>
+      <c r="C17" s="1">
+        <v>241</v>
+      </c>
+      <c r="D17" s="1">
+        <v>138</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.36515151515151517</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1">
+        <v>245</v>
+      </c>
+      <c r="D18" s="1">
+        <v>142</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.37121212121212122</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.23666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1">
+        <v>258</v>
+      </c>
+      <c r="D19" s="1">
+        <v>142</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.39090909090909093</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.23666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>221</v>
+      </c>
+      <c r="C20" s="1">
+        <v>283</v>
+      </c>
+      <c r="D20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.42878787878787877</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>224</v>
+      </c>
+      <c r="C21" s="1">
+        <v>288</v>
+      </c>
+      <c r="D21" s="1">
+        <v>163</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.27166666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1">
+        <v>292</v>
+      </c>
+      <c r="D22" s="1">
+        <v>163</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.44242424242424244</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.27166666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>220</v>
+      </c>
+      <c r="C23" s="1">
+        <v>286</v>
+      </c>
+      <c r="D23" s="1">
+        <v>169</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.28166666666666668</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>214</v>
+      </c>
+      <c r="C24" s="1">
+        <v>284</v>
+      </c>
+      <c r="D24" s="1">
+        <v>169</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.4303030303030303</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.28166666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>220</v>
+      </c>
+      <c r="C25" s="1">
+        <v>282</v>
+      </c>
+      <c r="D25" s="1">
+        <v>159</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>228</v>
+      </c>
+      <c r="C26" s="1">
+        <v>280</v>
+      </c>
+      <c r="D26" s="1">
+        <v>155</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>232</v>
+      </c>
+      <c r="C27" s="1">
+        <v>287</v>
+      </c>
+      <c r="D27" s="1">
+        <v>161</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.43484848484848487</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.26833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>228</v>
+      </c>
+      <c r="C28" s="1">
+        <v>291</v>
+      </c>
+      <c r="D28" s="1">
+        <v>159</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.44090909090909092</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>227</v>
+      </c>
+      <c r="C29" s="1">
+        <v>287</v>
+      </c>
+      <c r="D29" s="1">
+        <v>147</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.43484848484848487</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>224</v>
+      </c>
+      <c r="C30" s="1">
+        <v>281</v>
+      </c>
+      <c r="D30" s="1">
+        <v>139</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.42575757575757578</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>207</v>
+      </c>
+      <c r="C31" s="1">
+        <v>256</v>
+      </c>
+      <c r="D31" s="1">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.38787878787878788</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.21333333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>208</v>
+      </c>
+      <c r="C32" s="1">
+        <v>252</v>
+      </c>
+      <c r="D32" s="1">
+        <v>140</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>212</v>
+      </c>
+      <c r="C33" s="1">
+        <v>253</v>
+      </c>
+      <c r="D33" s="1">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>197</v>
+      </c>
+      <c r="C34" s="1">
+        <v>249</v>
+      </c>
+      <c r="D34" s="1">
+        <v>139</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.37727272727272726</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <v>213</v>
+      </c>
+      <c r="C35" s="1">
+        <v>263</v>
+      </c>
+      <c r="D35" s="1">
+        <v>139</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.3984848484848485</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
+        <v>214</v>
+      </c>
+      <c r="C36" s="1">
+        <v>251</v>
+      </c>
+      <c r="D36" s="1">
+        <v>149</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.24833333333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
+        <v>216</v>
+      </c>
+      <c r="C37" s="1">
+        <v>251</v>
+      </c>
+      <c r="D37" s="1">
+        <v>148</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.24666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B38" s="1">
+        <v>217</v>
+      </c>
+      <c r="C38" s="1">
+        <v>248</v>
+      </c>
+      <c r="D38" s="1">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.37575757575757573</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>209</v>
+      </c>
+      <c r="C39" s="1">
+        <v>236</v>
+      </c>
+      <c r="D39" s="1">
+        <v>119</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.3575757575757576</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0.19833333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>201</v>
+      </c>
+      <c r="C40" s="1">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1">
+        <v>121</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.35606060606060608</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.20166666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>204</v>
+      </c>
+      <c r="C41" s="1">
+        <v>241</v>
+      </c>
+      <c r="D41" s="1">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.36515151515151517</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>209</v>
+      </c>
+      <c r="C42" s="1">
+        <v>251</v>
+      </c>
+      <c r="D42" s="1">
+        <v>140</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>216</v>
+      </c>
+      <c r="C43" s="1">
+        <v>263</v>
+      </c>
+      <c r="D43" s="1">
+        <v>144</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.3984848484848485</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>209</v>
+      </c>
+      <c r="C44" s="1">
+        <v>264</v>
+      </c>
+      <c r="D44" s="1">
+        <v>120</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202</v>
+      </c>
+      <c r="C45" s="1">
+        <v>279</v>
+      </c>
+      <c r="D45" s="1">
+        <v>124</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.42272727272727273</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>214</v>
+      </c>
+      <c r="C46" s="1">
+        <v>292</v>
+      </c>
+      <c r="D46" s="1">
+        <v>130</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.44242424242424244</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>213</v>
+      </c>
+      <c r="C47" s="1">
+        <v>298</v>
+      </c>
+      <c r="D47" s="1">
+        <v>135</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.45151515151515154</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>230</v>
+      </c>
+      <c r="C48" s="1">
+        <v>296</v>
+      </c>
+      <c r="D48" s="1">
+        <v>129</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.44848484848484849</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>244</v>
+      </c>
+      <c r="C49" s="1">
+        <v>319</v>
+      </c>
+      <c r="D49" s="1">
+        <v>145</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.24166666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>239</v>
+      </c>
+      <c r="C50" s="1">
+        <v>325</v>
+      </c>
+      <c r="D50" s="1">
+        <v>141</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <v>239</v>
+      </c>
+      <c r="C51" s="1">
+        <v>304</v>
+      </c>
+      <c r="D51" s="1">
+        <v>127</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.46060606060606063</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.21166666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1">
+        <v>312</v>
+      </c>
+      <c r="D52" s="1">
+        <v>115</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0.19166666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <v>275</v>
+      </c>
+      <c r="C53" s="1">
+        <v>330</v>
+      </c>
+      <c r="D53" s="1">
+        <v>139</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
+        <v>263</v>
+      </c>
+      <c r="C54" s="1">
+        <v>323</v>
+      </c>
+      <c r="D54" s="1">
+        <v>137</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.48939393939393938</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0.22833333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B55" s="1">
+        <v>246</v>
+      </c>
+      <c r="C55" s="1">
+        <v>302</v>
+      </c>
+      <c r="D55" s="1">
+        <v>142</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.45757575757575758</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0.23666666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B56" s="1">
+        <v>255</v>
+      </c>
+      <c r="C56" s="1">
+        <v>304</v>
+      </c>
+      <c r="D56" s="1">
+        <v>133</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.53125</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.46060606060606063</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0.22166666666666668</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B57" s="1">
+        <v>261</v>
+      </c>
+      <c r="C57" s="1">
+        <v>310</v>
+      </c>
+      <c r="D57" s="1">
+        <v>133</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.46969696969696972</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0.22166666666666668</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <v>261</v>
+      </c>
+      <c r="C58" s="1">
+        <v>304</v>
+      </c>
+      <c r="D58" s="1">
+        <v>135</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.46060606060606063</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B59" s="1">
+        <v>277</v>
+      </c>
+      <c r="C59" s="1">
+        <v>301</v>
+      </c>
+      <c r="D59" s="1">
+        <v>141</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.45606060606060606</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B60" s="1">
+        <v>264</v>
+      </c>
+      <c r="C60" s="1">
+        <v>281</v>
+      </c>
+      <c r="D60" s="1">
+        <v>131</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.42575757575757578</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0.21833333333333332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B61" s="1">
+        <v>271</v>
+      </c>
+      <c r="C61" s="1">
+        <v>269</v>
+      </c>
+      <c r="D61" s="1">
+        <v>128</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.40757575757575759</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0.21333333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <v>288</v>
+      </c>
+      <c r="C62" s="1">
+        <v>295</v>
+      </c>
+      <c r="D62" s="1">
+        <v>143</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.44696969696969696</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0.23833333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B63" s="1">
+        <v>283</v>
+      </c>
+      <c r="C63" s="1">
+        <v>289</v>
+      </c>
+      <c r="D63" s="1">
+        <v>153</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0.43787878787878787</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B64" s="1">
+        <v>285</v>
+      </c>
+      <c r="C64" s="1">
+        <v>291</v>
+      </c>
+      <c r="D64" s="1">
+        <v>158</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.44090909090909092</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0.26333333333333331</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B65" s="1">
+        <v>281</v>
+      </c>
+      <c r="C65" s="1">
+        <v>282</v>
+      </c>
+      <c r="D65" s="1">
+        <v>158</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0.26333333333333331</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B66" s="1">
+        <v>272</v>
+      </c>
+      <c r="C66" s="1">
+        <v>271</v>
+      </c>
+      <c r="D66" s="1">
+        <v>150</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.41060606060606059</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B67" s="1">
+        <v>269</v>
+      </c>
+      <c r="C67" s="1">
+        <v>253</v>
+      </c>
+      <c r="D67" s="1">
+        <v>138</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="3">B67/480</f>
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="4">C67/660</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="5">D67/600</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B68" s="1">
+        <v>250</v>
+      </c>
+      <c r="C68" s="1">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1">
+        <v>124</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>0.36818181818181817</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <v>253</v>
+      </c>
+      <c r="C69" s="1">
+        <v>255</v>
+      </c>
+      <c r="D69" s="1">
+        <v>124</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <v>236</v>
+      </c>
+      <c r="C70" s="1">
+        <v>265</v>
+      </c>
+      <c r="D70" s="1">
+        <v>130</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>0.40151515151515149</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <v>230</v>
+      </c>
+      <c r="C71" s="1">
+        <v>266</v>
+      </c>
+      <c r="D71" s="1">
+        <v>132</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0.40303030303030302</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B72" s="1">
+        <v>228</v>
+      </c>
+      <c r="C72" s="1">
+        <v>269</v>
+      </c>
+      <c r="D72" s="1">
+        <v>127</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>0.40757575757575759</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>0.21166666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <v>219</v>
+      </c>
+      <c r="C73" s="1">
+        <v>261</v>
+      </c>
+      <c r="D73" s="1">
+        <v>116</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>0.39545454545454545</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0.19333333333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
+        <v>224</v>
+      </c>
+      <c r="C74" s="1">
+        <v>263</v>
+      </c>
+      <c r="D74" s="1">
+        <v>108</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0.3984848484848485</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
+        <v>223</v>
+      </c>
+      <c r="C75" s="1">
+        <v>251</v>
+      </c>
+      <c r="D75" s="1">
+        <v>103</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>0.17166666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
+        <v>206</v>
+      </c>
+      <c r="C76" s="1">
+        <v>249</v>
+      </c>
+      <c r="D76" s="1">
+        <v>103</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>0.37727272727272726</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>0.17166666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1">
+        <v>244</v>
+      </c>
+      <c r="D77" s="1">
+        <v>104</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>0.36969696969696969</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>0.17333333333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B78" s="1">
+        <v>208</v>
+      </c>
+      <c r="C78" s="1">
+        <v>257</v>
+      </c>
+      <c r="D78" s="1">
+        <v>107</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>0.3893939393939394</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0.17833333333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B79" s="1">
+        <v>193</v>
+      </c>
+      <c r="C79" s="1">
+        <v>250</v>
+      </c>
+      <c r="D79" s="1">
+        <v>105</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B80" s="1">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1">
+        <v>265</v>
+      </c>
+      <c r="D80" s="1">
+        <v>108</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>0.40151515151515149</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B81" s="1">
+        <v>182</v>
+      </c>
+      <c r="C81" s="1">
+        <v>255</v>
+      </c>
+      <c r="D81" s="1">
+        <v>94</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0.15666666666666668</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
+        <v>174</v>
+      </c>
+      <c r="C82" s="1">
+        <v>267</v>
+      </c>
+      <c r="D82" s="1">
+        <v>101</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>0.40454545454545454</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>0.16833333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <v>163</v>
+      </c>
+      <c r="C83" s="1">
+        <v>247</v>
+      </c>
+      <c r="D83" s="1">
+        <v>94</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0.37424242424242427</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0.15666666666666668</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B84" s="1">
+        <v>156</v>
+      </c>
+      <c r="C84" s="1">
+        <v>260</v>
+      </c>
+      <c r="D84" s="1">
+        <v>107</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>0.17833333333333334</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B85" s="1">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1">
+        <v>253</v>
+      </c>
+      <c r="D85" s="1">
+        <v>106</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>0.17666666666666667</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B86" s="1">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1">
+        <v>251</v>
+      </c>
+      <c r="D86" s="1">
+        <v>110</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B87" s="1">
+        <v>193</v>
+      </c>
+      <c r="C87" s="1">
+        <v>248</v>
+      </c>
+      <c r="D87" s="1">
+        <v>124</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>0.37575757575757573</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
+        <v>198</v>
+      </c>
+      <c r="C88" s="1">
+        <v>234</v>
+      </c>
+      <c r="D88" s="1">
+        <v>124</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>0.35454545454545455</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>200</v>
+      </c>
+      <c r="C89" s="1">
+        <v>251</v>
+      </c>
+      <c r="D89" s="1">
+        <v>135</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B90" s="1">
+        <v>201</v>
+      </c>
+      <c r="C90" s="1">
+        <v>259</v>
+      </c>
+      <c r="D90" s="1">
+        <v>139</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>0.3924242424242424</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B91" s="1">
+        <v>219</v>
+      </c>
+      <c r="C91" s="1">
+        <v>259</v>
+      </c>
+      <c r="D91" s="1">
+        <v>141</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>0.3924242424242424</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B92" s="1">
+        <v>216</v>
+      </c>
+      <c r="C92" s="1">
+        <v>278</v>
+      </c>
+      <c r="D92" s="1">
+        <v>152</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>0.4212121212121212</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <v>227</v>
+      </c>
+      <c r="C93" s="1">
+        <v>280</v>
+      </c>
+      <c r="D93" s="1">
+        <v>155</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B94" s="1">
+        <v>209</v>
+      </c>
+      <c r="C94" s="1">
+        <v>282</v>
+      </c>
+      <c r="D94" s="1">
+        <v>161</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>0.26833333333333331</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B95" s="1">
+        <v>217</v>
+      </c>
+      <c r="C95" s="1">
+        <v>293</v>
+      </c>
+      <c r="D95" s="1">
+        <v>161</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>0.44393939393939397</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>0.26833333333333331</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B96" s="1">
+        <v>199</v>
+      </c>
+      <c r="C96" s="1">
+        <v>301</v>
+      </c>
+      <c r="D96" s="1">
+        <v>176</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>0.41458333333333336</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>0.45606060606060606</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>0.29333333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B97" s="1">
+        <v>202</v>
+      </c>
+      <c r="C97" s="1">
+        <v>290</v>
+      </c>
+      <c r="D97" s="1">
+        <v>184</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B98" s="1">
+        <v>202</v>
+      </c>
+      <c r="C98" s="1">
+        <v>290</v>
+      </c>
+      <c r="D98" s="1">
+        <v>184</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B99" s="1">
+        <v>216</v>
+      </c>
+      <c r="C99" s="1">
+        <v>303</v>
+      </c>
+      <c r="D99" s="1">
+        <v>188</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>0.45909090909090911</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>0.31333333333333335</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B100" s="1">
+        <v>216</v>
+      </c>
+      <c r="C100" s="1">
+        <v>303</v>
+      </c>
+      <c r="D100" s="1">
+        <v>196</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>0.45909090909090911</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>0.32666666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B101" s="1">
+        <v>225</v>
+      </c>
+      <c r="C101" s="1">
+        <v>305</v>
+      </c>
+      <c r="D101" s="1">
+        <v>180</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>0.4621212121212121</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B102" s="1">
+        <v>222</v>
+      </c>
+      <c r="C102" s="1">
+        <v>305</v>
+      </c>
+      <c r="D102" s="1">
+        <v>188</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>0.4621212121212121</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>0.31333333333333335</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B103" s="1">
+        <v>216</v>
+      </c>
+      <c r="C103" s="1">
+        <v>291</v>
+      </c>
+      <c r="D103" s="1">
+        <v>175</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>0.44090909090909092</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B104" s="1">
+        <v>220</v>
+      </c>
+      <c r="C104" s="1">
+        <v>306</v>
+      </c>
+      <c r="D104" s="1">
+        <v>176</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>0.46363636363636362</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>0.29333333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B105" s="1">
+        <v>229</v>
+      </c>
+      <c r="C105" s="1">
+        <v>313</v>
+      </c>
+      <c r="D105" s="1">
+        <v>180</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>0.47708333333333336</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>0.47424242424242424</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B106" s="1">
+        <v>219</v>
+      </c>
+      <c r="C106" s="1">
+        <v>302</v>
+      </c>
+      <c r="D106" s="1">
+        <v>175</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>0.45757575757575758</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B107" s="1">
+        <v>217</v>
+      </c>
+      <c r="C107" s="1">
+        <v>317</v>
+      </c>
+      <c r="D107" s="1">
+        <v>171</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>0.48030303030303029</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B108" s="1">
+        <v>210</v>
+      </c>
+      <c r="C108" s="1">
+        <v>310</v>
+      </c>
+      <c r="D108" s="1">
+        <v>171</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>0.46969696969696972</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B109" s="1">
+        <v>207</v>
+      </c>
+      <c r="C109" s="1">
+        <v>299</v>
+      </c>
+      <c r="D109" s="1">
+        <v>147</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>0.45303030303030301</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B110" s="1">
+        <v>211</v>
+      </c>
+      <c r="C110" s="1">
+        <v>302</v>
+      </c>
+      <c r="D110" s="1">
+        <v>155</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>0.45757575757575758</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B111" s="1">
+        <v>218</v>
+      </c>
+      <c r="C111" s="1">
+        <v>322</v>
+      </c>
+      <c r="D111" s="1">
+        <v>158</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>0.26333333333333331</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B112" s="1">
+        <v>214</v>
+      </c>
+      <c r="C112" s="1">
+        <v>322</v>
+      </c>
+      <c r="D112" s="1">
+        <v>156</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B113" s="1">
+        <v>219</v>
+      </c>
+      <c r="C113" s="1">
+        <v>333</v>
+      </c>
+      <c r="D113" s="1">
+        <v>156</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B114" s="1">
+        <v>222</v>
+      </c>
+      <c r="C114" s="1">
+        <v>334</v>
+      </c>
+      <c r="D114" s="1">
+        <v>162</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>0.5060606060606061</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B115" s="1">
+        <v>228</v>
+      </c>
+      <c r="C115" s="1">
+        <v>331</v>
+      </c>
+      <c r="D115" s="1">
+        <v>151</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>0.50151515151515147</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>0.25166666666666665</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B116" s="1">
+        <v>208</v>
+      </c>
+      <c r="C116" s="1">
+        <v>329</v>
+      </c>
+      <c r="D116" s="1">
+        <v>150</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>0.49848484848484848</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B117" s="1">
+        <v>206</v>
+      </c>
+      <c r="C117" s="1">
+        <v>350</v>
+      </c>
+      <c r="D117" s="1">
+        <v>154</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>0.53030303030303028</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>0.25666666666666665</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B118" s="1">
+        <v>204</v>
+      </c>
+      <c r="C118" s="1">
+        <v>354</v>
+      </c>
+      <c r="D118" s="1">
+        <v>152</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>0.53636363636363638</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B119" s="1">
+        <v>210</v>
+      </c>
+      <c r="C119" s="1">
+        <v>347</v>
+      </c>
+      <c r="D119" s="1">
+        <v>154</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>0.52575757575757576</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0.25666666666666665</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B120" s="1">
+        <v>207</v>
+      </c>
+      <c r="C120" s="1">
+        <v>351</v>
+      </c>
+      <c r="D120" s="1">
+        <v>158</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>0.53181818181818186</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>0.26333333333333331</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B121" s="1">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1">
+        <v>332</v>
+      </c>
+      <c r="D121" s="1">
+        <v>149</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>0.50303030303030305</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>0.24833333333333332</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B122" s="1">
+        <v>183</v>
+      </c>
+      <c r="C122" s="1">
+        <v>349</v>
+      </c>
+      <c r="D122" s="1">
+        <v>145</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>0.52878787878787881</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>0.24166666666666667</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B123" s="1">
+        <v>192</v>
+      </c>
+      <c r="C123" s="1">
+        <v>347</v>
+      </c>
+      <c r="D123" s="1">
+        <v>153</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>0.52575757575757576</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B124" s="1">
+        <v>190</v>
+      </c>
+      <c r="C124" s="1">
+        <v>327</v>
+      </c>
+      <c r="D124" s="1">
+        <v>163</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>0.27166666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B125" s="1">
+        <v>198</v>
+      </c>
+      <c r="C125" s="1">
+        <v>327</v>
+      </c>
+      <c r="D125" s="1">
+        <v>163</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>0.27166666666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B126" s="1">
+        <v>195</v>
+      </c>
+      <c r="C126" s="1">
+        <v>332</v>
+      </c>
+      <c r="D126" s="1">
+        <v>145</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>0.40625</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>0.50303030303030305</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>0.24166666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B127" s="1">
+        <v>195</v>
+      </c>
+      <c r="C127" s="1">
+        <v>322</v>
+      </c>
+      <c r="D127" s="1">
+        <v>141</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>0.40625</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B128" s="1">
+        <v>203</v>
+      </c>
+      <c r="C128" s="1">
+        <v>332</v>
+      </c>
+      <c r="D128" s="1">
+        <v>141</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>0.50303030303030305</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B129" s="1">
+        <v>214</v>
+      </c>
+      <c r="C129" s="1">
+        <v>347</v>
+      </c>
+      <c r="D129" s="1">
+        <v>144</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>0.52575757575757576</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B130" s="1">
+        <v>197</v>
+      </c>
+      <c r="C130" s="1">
+        <v>331</v>
+      </c>
+      <c r="D130" s="1">
+        <v>134</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>0.50151515151515147</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>0.22333333333333333</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B131" s="1">
+        <v>204</v>
+      </c>
+      <c r="C131" s="1">
+        <v>325</v>
+      </c>
+      <c r="D131" s="1">
+        <v>134</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="6">B131/480</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="7">C131/660</f>
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="8">D131/600</f>
+        <v>0.22333333333333333</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B132" s="1">
+        <v>208</v>
+      </c>
+      <c r="C132" s="1">
+        <v>316</v>
+      </c>
+      <c r="D132" s="1">
+        <v>140</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="6"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="7"/>
+        <v>0.47878787878787876</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B133" s="1">
+        <v>223</v>
+      </c>
+      <c r="C133" s="1">
+        <v>335</v>
+      </c>
+      <c r="D133" s="1">
+        <v>150</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="6"/>
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="7"/>
+        <v>0.50757575757575757</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B134" s="1">
+        <v>210</v>
+      </c>
+      <c r="C134" s="1">
+        <v>334</v>
+      </c>
+      <c r="D134" s="1">
+        <v>152</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="7"/>
+        <v>0.5060606060606061</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="8"/>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B135" s="1">
+        <v>217</v>
+      </c>
+      <c r="C135" s="1">
+        <v>338</v>
+      </c>
+      <c r="D135" s="1">
+        <v>128</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="6"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="7"/>
+        <v>0.51212121212121209</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="8"/>
+        <v>0.21333333333333335</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B136" s="1">
+        <v>217</v>
+      </c>
+      <c r="C136" s="1">
+        <v>331</v>
+      </c>
+      <c r="D136" s="1">
+        <v>124</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="6"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="7"/>
+        <v>0.50151515151515147</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="8"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B137" s="1">
+        <v>216</v>
+      </c>
+      <c r="C137" s="1">
+        <v>322</v>
+      </c>
+      <c r="D137" s="1">
+        <v>132</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="7"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="8"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B138" s="1">
+        <v>231</v>
+      </c>
+      <c r="C138" s="1">
+        <v>340</v>
+      </c>
+      <c r="D138" s="1">
+        <v>129</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="6"/>
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="7"/>
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="8"/>
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B139" s="1">
+        <v>232</v>
+      </c>
+      <c r="C139" s="1">
+        <v>338</v>
+      </c>
+      <c r="D139" s="1">
+        <v>135</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="6"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="7"/>
+        <v>0.51212121212121209</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B140" s="1">
+        <v>239</v>
+      </c>
+      <c r="C140" s="1">
+        <v>325</v>
+      </c>
+      <c r="D140" s="1">
+        <v>121</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="6"/>
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="7"/>
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="8"/>
+        <v>0.20166666666666666</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B141" s="1">
+        <v>245</v>
+      </c>
+      <c r="C141" s="1">
+        <v>331</v>
+      </c>
+      <c r="D141" s="1">
+        <v>121</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="6"/>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="7"/>
+        <v>0.50151515151515147</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="8"/>
+        <v>0.20166666666666666</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B142" s="1">
+        <v>243</v>
+      </c>
+      <c r="C142" s="1">
+        <v>349</v>
+      </c>
+      <c r="D142" s="1">
+        <v>137</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="6"/>
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="7"/>
+        <v>0.52878787878787881</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="8"/>
+        <v>0.22833333333333333</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B143" s="1">
+        <v>243</v>
+      </c>
+      <c r="C143" s="1">
+        <v>349</v>
+      </c>
+      <c r="D143" s="1">
+        <v>137</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="6"/>
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="7"/>
+        <v>0.52878787878787881</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="8"/>
+        <v>0.22833333333333333</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B144" s="1">
+        <v>240</v>
+      </c>
+      <c r="C144" s="1">
+        <v>355</v>
+      </c>
+      <c r="D144" s="1">
+        <v>143</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="7"/>
+        <v>0.53787878787878785</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="8"/>
+        <v>0.23833333333333334</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B145" s="1">
+        <v>239</v>
+      </c>
+      <c r="C145" s="1">
+        <v>347</v>
+      </c>
+      <c r="D145" s="1">
+        <v>132</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="6"/>
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="7"/>
+        <v>0.52575757575757576</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="8"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B146" s="1">
+        <v>246</v>
+      </c>
+      <c r="C146" s="1">
+        <v>355</v>
+      </c>
+      <c r="D146" s="1">
+        <v>123</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="6"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="7"/>
+        <v>0.53787878787878785</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B147" s="1">
+        <v>239</v>
+      </c>
+      <c r="C147" s="1">
+        <v>350</v>
+      </c>
+      <c r="D147" s="1">
+        <v>125</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="6"/>
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="7"/>
+        <v>0.53030303030303028</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="8"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B148" s="1">
+        <v>246</v>
+      </c>
+      <c r="C148" s="1">
+        <v>368</v>
+      </c>
+      <c r="D148" s="1">
+        <v>140</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="6"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="7"/>
+        <v>0.55757575757575761</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="8"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B149" s="1">
+        <v>242</v>
+      </c>
+      <c r="C149" s="1">
+        <v>365</v>
+      </c>
+      <c r="D149" s="1">
+        <v>156</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="6"/>
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="7"/>
+        <v>0.55303030303030298</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="8"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B150" s="1">
+        <v>249</v>
+      </c>
+      <c r="C150" s="1">
+        <v>361</v>
+      </c>
+      <c r="D150" s="1">
+        <v>164</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="6"/>
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>0.54696969696969699</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="8"/>
+        <v>0.27333333333333332</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B151" s="1">
+        <v>227</v>
+      </c>
+      <c r="C151" s="1">
+        <v>348</v>
+      </c>
+      <c r="D151" s="1">
+        <v>159</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="6"/>
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="7"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="8"/>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B152" s="1">
+        <v>221</v>
+      </c>
+      <c r="C152" s="1">
+        <v>334</v>
+      </c>
+      <c r="D152" s="1">
+        <v>142</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="6"/>
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="7"/>
+        <v>0.5060606060606061</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="8"/>
+        <v>0.23666666666666666</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B153" s="1">
+        <v>219</v>
+      </c>
+      <c r="C153" s="1">
+        <v>334</v>
+      </c>
+      <c r="D153" s="1">
+        <v>139</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="6"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="7"/>
+        <v>0.5060606060606061</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="8"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B154" s="1">
+        <v>225</v>
+      </c>
+      <c r="C154" s="1">
+        <v>342</v>
+      </c>
+      <c r="D154" s="1">
+        <v>133</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="7"/>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="8"/>
+        <v>0.22166666666666668</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B155" s="1">
+        <v>225</v>
+      </c>
+      <c r="C155" s="1">
+        <v>327</v>
+      </c>
+      <c r="D155" s="1">
+        <v>141</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="7"/>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="8"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B156" s="1">
+        <v>225</v>
+      </c>
+      <c r="C156" s="1">
+        <v>323</v>
+      </c>
+      <c r="D156" s="1">
+        <v>141</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="7"/>
+        <v>0.48939393939393938</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="8"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B157" s="1">
+        <v>223</v>
+      </c>
+      <c r="C157" s="1">
+        <v>339</v>
+      </c>
+      <c r="D157" s="1">
+        <v>155</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="6"/>
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="7"/>
+        <v>0.51363636363636367</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="8"/>
+        <v>0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B158" s="1">
+        <v>217</v>
+      </c>
+      <c r="C158" s="1">
+        <v>344</v>
+      </c>
+      <c r="D158" s="1">
+        <v>147</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="6"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="7"/>
+        <v>0.52121212121212124</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="8"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B159" s="1">
+        <v>220</v>
+      </c>
+      <c r="C159" s="1">
+        <v>350</v>
+      </c>
+      <c r="D159" s="1">
+        <v>152</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="7"/>
+        <v>0.53030303030303028</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="8"/>
+        <v>0.25333333333333335</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B160" s="1">
+        <v>216</v>
+      </c>
+      <c r="C160" s="1">
+        <v>327</v>
+      </c>
+      <c r="D160" s="1">
+        <v>144</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="7"/>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="8"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B161" s="1">
+        <v>217</v>
+      </c>
+      <c r="C161" s="1">
+        <v>345</v>
+      </c>
+      <c r="D161" s="1">
+        <v>157</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="6"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="7"/>
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="8"/>
+        <v>0.26166666666666666</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B162" s="1">
+        <v>220</v>
+      </c>
+      <c r="C162" s="1">
+        <v>341</v>
+      </c>
+      <c r="D162" s="1">
+        <v>155</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="7"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="8"/>
+        <v>0.25833333333333336</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B163" s="1">
+        <v>226</v>
+      </c>
+      <c r="C163" s="1">
+        <v>317</v>
+      </c>
+      <c r="D163" s="1">
+        <v>130</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="6"/>
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="7"/>
+        <v>0.48030303030303029</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="8"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B164" s="1">
+        <v>221</v>
+      </c>
+      <c r="C164" s="1">
+        <v>322</v>
+      </c>
+      <c r="D164" s="1">
+        <v>138</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="6"/>
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="7"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="8"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B165" s="1">
+        <v>221</v>
+      </c>
+      <c r="C165" s="1">
+        <v>322</v>
+      </c>
+      <c r="D165" s="1">
+        <v>138</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="6"/>
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="7"/>
+        <v>0.48787878787878786</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="8"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B166" s="1">
+        <v>214</v>
+      </c>
+      <c r="C166" s="1">
+        <v>289</v>
+      </c>
+      <c r="D166" s="1">
+        <v>141</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="6"/>
+        <v>0.44583333333333336</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="7"/>
+        <v>0.43787878787878787</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="8"/>
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B167" s="1">
+        <v>220</v>
+      </c>
+      <c r="C167" s="1">
+        <v>271</v>
+      </c>
+      <c r="D167" s="1">
+        <v>137</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="6"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="7"/>
+        <v>0.41060606060606059</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="8"/>
+        <v>0.22833333333333333</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B168" s="1">
+        <v>219</v>
+      </c>
+      <c r="C168" s="1">
+        <v>255</v>
+      </c>
+      <c r="D168" s="1">
+        <v>130</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="6"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="7"/>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="8"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B169" s="1">
+        <v>225</v>
+      </c>
+      <c r="C169" s="1">
+        <v>256</v>
+      </c>
+      <c r="D169" s="1">
+        <v>134</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="7"/>
+        <v>0.38787878787878788</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="8"/>
+        <v>0.22333333333333333</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B170" s="1">
+        <v>224</v>
+      </c>
+      <c r="C170" s="1">
+        <v>237</v>
+      </c>
+      <c r="D170" s="1">
+        <v>127</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="7"/>
+        <v>0.35909090909090907</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="8"/>
+        <v>0.21166666666666667</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B171" s="1">
+        <v>217</v>
+      </c>
+      <c r="C171" s="1">
+        <v>248</v>
+      </c>
+      <c r="D171" s="1">
+        <v>130</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="6"/>
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="7"/>
+        <v>0.37575757575757573</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="8"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B172" s="1">
+        <v>225</v>
+      </c>
+      <c r="C172" s="1">
+        <v>267</v>
+      </c>
+      <c r="D172" s="1">
+        <v>134</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="7"/>
+        <v>0.40454545454545454</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="8"/>
+        <v>0.22333333333333333</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B173" s="1">
+        <v>252</v>
+      </c>
+      <c r="C173" s="1">
+        <v>307</v>
+      </c>
+      <c r="D173" s="1">
+        <v>146</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="7"/>
+        <v>0.46515151515151515</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="8"/>
+        <v>0.24333333333333335</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B174" s="1">
+        <v>255</v>
+      </c>
+      <c r="C174" s="1">
+        <v>314</v>
+      </c>
+      <c r="D174" s="1">
+        <v>156</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="6"/>
+        <v>0.53125</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="7"/>
+        <v>0.47575757575757577</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="8"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B175" s="1">
+        <v>259</v>
+      </c>
+      <c r="C175" s="1">
+        <v>331</v>
+      </c>
+      <c r="D175" s="1">
+        <v>150</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="6"/>
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>0.50151515151515147</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B176" s="1">
+        <v>255</v>
+      </c>
+      <c r="C176" s="1">
+        <v>319</v>
+      </c>
+      <c r="D176" s="1">
+        <v>142</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="6"/>
+        <v>0.53125</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="8"/>
+        <v>0.23666666666666666</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B177" s="1">
+        <v>241</v>
+      </c>
+      <c r="C177" s="1">
+        <v>289</v>
+      </c>
+      <c r="D177" s="1">
+        <v>133</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="6"/>
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>0.43787878787878787</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="8"/>
+        <v>0.22166666666666668</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B178" s="1">
+        <v>255</v>
+      </c>
+      <c r="C178" s="1">
+        <v>292</v>
+      </c>
+      <c r="D178" s="1">
+        <v>139</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="6"/>
+        <v>0.53125</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>0.44242424242424244</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="8"/>
+        <v>0.23166666666666666</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B179" s="1">
+        <v>256</v>
+      </c>
+      <c r="C179" s="1">
+        <v>290</v>
+      </c>
+      <c r="D179" s="1">
+        <v>126</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="6"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="8"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B180" s="1">
+        <v>249</v>
+      </c>
+      <c r="C180" s="1">
+        <v>290</v>
+      </c>
+      <c r="D180" s="1">
+        <v>140</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="6"/>
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="8"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B181" s="1">
+        <v>246</v>
+      </c>
+      <c r="C181" s="1">
+        <v>307</v>
+      </c>
+      <c r="D181" s="1">
+        <v>164</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="6"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>0.46515151515151515</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="8"/>
+        <v>0.27333333333333332</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B182" s="1">
+        <v>248</v>
+      </c>
+      <c r="C182" s="1">
+        <v>320</v>
+      </c>
+      <c r="D182" s="1">
+        <v>173</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="6"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="7"/>
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="8"/>
+        <v>0.28833333333333333</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B183" s="1">
+        <v>249</v>
+      </c>
+      <c r="C183" s="1">
+        <v>324</v>
+      </c>
+      <c r="D183" s="1">
+        <v>175</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="6"/>
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>0.49090909090909091</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="8"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B184" s="1">
+        <v>225</v>
+      </c>
+      <c r="C184" s="1">
+        <v>323</v>
+      </c>
+      <c r="D184" s="1">
+        <v>164</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="7"/>
+        <v>0.48939393939393938</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="8"/>
+        <v>0.27333333333333332</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B185" s="1">
+        <v>206</v>
+      </c>
+      <c r="C185" s="1">
+        <v>323</v>
+      </c>
+      <c r="D185" s="1">
+        <v>183</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="6"/>
+        <v>0.42916666666666664</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="7"/>
+        <v>0.48939393939393938</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="8"/>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B186" s="1">
+        <v>181</v>
+      </c>
+      <c r="C186" s="1">
+        <v>328</v>
+      </c>
+      <c r="D186" s="1">
+        <v>209</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="6"/>
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="7"/>
+        <v>0.49696969696969695</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="8"/>
+        <v>0.34833333333333333</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B187" s="1">
+        <v>181</v>
+      </c>
+      <c r="C187" s="1">
+        <v>330</v>
+      </c>
+      <c r="D187" s="1">
+        <v>202</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="6"/>
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="8"/>
+        <v>0.33666666666666667</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B188" s="1">
+        <v>167</v>
+      </c>
+      <c r="C188" s="1">
+        <v>340</v>
+      </c>
+      <c r="D188" s="1">
+        <v>207</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="6"/>
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="7"/>
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="8"/>
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B189" s="1">
+        <v>160</v>
+      </c>
+      <c r="C189" s="1">
+        <v>343</v>
+      </c>
+      <c r="D189" s="1">
+        <v>206</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="7"/>
+        <v>0.51969696969696966</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="8"/>
+        <v>0.34333333333333332</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B190" s="1">
+        <v>154</v>
+      </c>
+      <c r="C190" s="1">
+        <v>351</v>
+      </c>
+      <c r="D190" s="1">
+        <v>217</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="6"/>
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="7"/>
+        <v>0.53181818181818186</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="8"/>
+        <v>0.36166666666666669</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B191" s="1">
+        <v>141</v>
+      </c>
+      <c r="C191" s="1">
+        <v>312</v>
+      </c>
+      <c r="D191" s="1">
+        <v>228</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="6"/>
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="7"/>
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="8"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B192" s="1">
+        <v>124</v>
+      </c>
+      <c r="C192" s="1">
+        <v>290</v>
+      </c>
+      <c r="D192" s="1">
+        <v>230</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="6"/>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="7"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="8"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B193" s="1">
+        <v>110</v>
+      </c>
+      <c r="C193" s="1">
+        <v>270</v>
+      </c>
+      <c r="D193" s="1">
+        <v>214</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="6"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="7"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="8"/>
+        <v>0.35666666666666669</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B194" s="1">
+        <v>110</v>
+      </c>
+      <c r="C194" s="1">
+        <v>275</v>
+      </c>
+      <c r="D194" s="1">
+        <v>214</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="6"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="7"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="8"/>
+        <v>0.35666666666666669</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B195" s="1">
+        <v>96</v>
+      </c>
+      <c r="C195" s="1">
+        <v>268</v>
+      </c>
+      <c r="D195" s="1">
+        <v>243</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="9">B195/480</f>
+        <v>0.2</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="10">C195/660</f>
+        <v>0.40606060606060607</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="11">D195/600</f>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B196" s="1">
+        <v>100</v>
+      </c>
+      <c r="C196" s="1">
+        <v>279</v>
+      </c>
+      <c r="D196" s="1">
+        <v>256</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="10"/>
+        <v>0.42272727272727273</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="11"/>
+        <v>0.42666666666666669</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B197" s="1">
+        <v>100</v>
+      </c>
+      <c r="C197" s="1">
+        <v>253</v>
+      </c>
+      <c r="D197" s="1">
+        <v>255</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="10"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="11"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B198" s="1">
+        <v>100</v>
+      </c>
+      <c r="C198" s="1">
+        <v>252</v>
+      </c>
+      <c r="D198" s="1">
+        <v>280</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="10"/>
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="11"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B199" s="1">
+        <v>101</v>
+      </c>
+      <c r="C199" s="1">
+        <v>262</v>
+      </c>
+      <c r="D199" s="1">
+        <v>286</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="9"/>
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="10"/>
+        <v>0.39696969696969697</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="11"/>
+        <v>0.47666666666666668</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B200" s="1">
+        <v>111</v>
+      </c>
+      <c r="C200" s="1">
+        <v>251</v>
+      </c>
+      <c r="D200" s="1">
+        <v>272</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="9"/>
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="10"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="11"/>
+        <v>0.45333333333333331</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B201" s="1">
+        <v>111</v>
+      </c>
+      <c r="C201" s="1">
+        <v>262</v>
+      </c>
+      <c r="D201" s="1">
+        <v>271</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="9"/>
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="10"/>
+        <v>0.39696969696969697</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="11"/>
+        <v>0.45166666666666666</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B202" s="1">
+        <v>110</v>
+      </c>
+      <c r="C202" s="1">
+        <v>248</v>
+      </c>
+      <c r="D202" s="1">
+        <v>257</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="9"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="10"/>
+        <v>0.37575757575757573</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="11"/>
+        <v>0.42833333333333334</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B203" s="1">
+        <v>109</v>
+      </c>
+      <c r="C203" s="1">
+        <v>251</v>
+      </c>
+      <c r="D203" s="1">
+        <v>258</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="9"/>
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="10"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="11"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B204" s="1">
+        <v>121</v>
+      </c>
+      <c r="C204" s="1">
+        <v>247</v>
+      </c>
+      <c r="D204" s="1">
+        <v>257</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="9"/>
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="10"/>
+        <v>0.37424242424242427</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="11"/>
+        <v>0.42833333333333334</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B205" s="1">
+        <v>121</v>
+      </c>
+      <c r="C205" s="1">
+        <v>232</v>
+      </c>
+      <c r="D205" s="1">
+        <v>236</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="9"/>
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="10"/>
+        <v>0.3515151515151515</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="11"/>
+        <v>0.39333333333333331</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B206" s="1">
+        <v>117</v>
+      </c>
+      <c r="C206" s="1">
+        <v>230</v>
+      </c>
+      <c r="D206" s="1">
+        <v>256</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="9"/>
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>0.34848484848484851</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="11"/>
+        <v>0.42666666666666669</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B207" s="1">
+        <v>114</v>
+      </c>
+      <c r="C207" s="1">
+        <v>223</v>
+      </c>
+      <c r="D207" s="1">
+        <v>253</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="9"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="10"/>
+        <v>0.33787878787878789</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="11"/>
+        <v>0.42166666666666669</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B208" s="1">
+        <v>114</v>
+      </c>
+      <c r="C208" s="1">
+        <v>222</v>
+      </c>
+      <c r="D208" s="1">
+        <v>253</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="9"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="10"/>
+        <v>0.33636363636363636</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="11"/>
+        <v>0.42166666666666669</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B209" s="1">
+        <v>115</v>
+      </c>
+      <c r="C209" s="1">
+        <v>212</v>
+      </c>
+      <c r="D209" s="1">
+        <v>258</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="9"/>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="10"/>
+        <v>0.32121212121212123</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="11"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B210" s="1">
+        <v>101</v>
+      </c>
+      <c r="C210" s="1">
+        <v>206</v>
+      </c>
+      <c r="D210" s="1">
+        <v>264</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="9"/>
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="10"/>
+        <v>0.31212121212121213</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="11"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B211" s="1">
+        <v>97</v>
+      </c>
+      <c r="C211" s="1">
+        <v>208</v>
+      </c>
+      <c r="D211" s="1">
+        <v>271</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="9"/>
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="10"/>
+        <v>0.31515151515151513</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="11"/>
+        <v>0.45166666666666666</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B212" s="1">
+        <v>100</v>
+      </c>
+      <c r="C212" s="1">
+        <v>212</v>
+      </c>
+      <c r="D212" s="1">
+        <v>260</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="10"/>
+        <v>0.32121212121212123</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="11"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B213" s="1">
+        <v>100</v>
+      </c>
+      <c r="C213" s="1">
+        <v>214</v>
+      </c>
+      <c r="D213" s="1">
+        <v>265</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="10"/>
+        <v>0.32424242424242422</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="11"/>
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B214" s="1">
+        <v>100</v>
+      </c>
+      <c r="C214" s="1">
+        <v>218</v>
+      </c>
+      <c r="D214" s="1">
+        <v>262</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="10"/>
+        <v>0.33030303030303032</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="11"/>
+        <v>0.43666666666666665</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B215" s="1">
+        <v>100</v>
+      </c>
+      <c r="C215" s="1">
+        <v>224</v>
+      </c>
+      <c r="D215" s="1">
+        <v>270</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="10"/>
+        <v>0.33939393939393941</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B216" s="1">
+        <v>98</v>
+      </c>
+      <c r="C216" s="1">
+        <v>234</v>
+      </c>
+      <c r="D216" s="1">
+        <v>278</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="9"/>
+        <v>0.20416666666666666</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="10"/>
+        <v>0.35454545454545455</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="11"/>
+        <v>0.46333333333333332</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B217" s="1">
+        <v>98</v>
+      </c>
+      <c r="C217" s="1">
+        <v>221</v>
+      </c>
+      <c r="D217" s="1">
+        <v>265</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="9"/>
+        <v>0.20416666666666666</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="10"/>
+        <v>0.33484848484848484</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="11"/>
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B218" s="1">
+        <v>86</v>
+      </c>
+      <c r="C218" s="1">
+        <v>236</v>
+      </c>
+      <c r="D218" s="1">
+        <v>259</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="9"/>
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="10"/>
+        <v>0.3575757575757576</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="11"/>
+        <v>0.43166666666666664</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B219" s="1">
+        <v>84</v>
+      </c>
+      <c r="C219" s="1">
+        <v>247</v>
+      </c>
+      <c r="D219" s="1">
+        <v>259</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="10"/>
+        <v>0.37424242424242427</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="11"/>
+        <v>0.43166666666666664</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B220" s="1">
+        <v>84</v>
+      </c>
+      <c r="C220" s="1">
+        <v>250</v>
+      </c>
+      <c r="D220" s="1">
+        <v>270</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="10"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B221" s="1">
+        <v>71</v>
+      </c>
+      <c r="C221" s="1">
+        <v>238</v>
+      </c>
+      <c r="D221" s="1">
+        <v>263</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="9"/>
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="10"/>
+        <v>0.3606060606060606</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="11"/>
+        <v>0.43833333333333335</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B222" s="1">
+        <v>61</v>
+      </c>
+      <c r="C222" s="1">
+        <v>234</v>
+      </c>
+      <c r="D222" s="1">
+        <v>253</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="9"/>
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="10"/>
+        <v>0.35454545454545455</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="11"/>
+        <v>0.42166666666666669</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B223" s="1">
+        <v>57</v>
+      </c>
+      <c r="C223" s="1">
+        <v>246</v>
+      </c>
+      <c r="D223" s="1">
+        <v>268</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="9"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="10"/>
+        <v>0.37272727272727274</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="11"/>
+        <v>0.44666666666666666</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B224" s="1">
+        <v>73</v>
+      </c>
+      <c r="C224" s="1">
+        <v>245</v>
+      </c>
+      <c r="D224" s="1">
+        <v>266</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="9"/>
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="10"/>
+        <v>0.37121212121212122</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="11"/>
+        <v>0.44333333333333336</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B225" s="1">
+        <v>73</v>
+      </c>
+      <c r="C225" s="1">
+        <v>256</v>
+      </c>
+      <c r="D225" s="1">
+        <v>275</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="9"/>
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="10"/>
+        <v>0.38787878787878788</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="11"/>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B226" s="1">
+        <v>75</v>
+      </c>
+      <c r="C226" s="1">
+        <v>270</v>
+      </c>
+      <c r="D226" s="1">
+        <v>284</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="10"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="11"/>
+        <v>0.47333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B227" s="1">
+        <v>75</v>
+      </c>
+      <c r="C227" s="1">
+        <v>267</v>
+      </c>
+      <c r="D227" s="1">
+        <v>294</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="10"/>
+        <v>0.40454545454545454</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="11"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B228" s="1">
+        <v>76</v>
+      </c>
+      <c r="C228" s="1">
+        <v>260</v>
+      </c>
+      <c r="D228" s="1">
+        <v>282</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="9"/>
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="10"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="11"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B229" s="1">
+        <v>73</v>
+      </c>
+      <c r="C229" s="1">
+        <v>263</v>
+      </c>
+      <c r="D229" s="1">
+        <v>283</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="9"/>
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="10"/>
+        <v>0.3984848484848485</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="11"/>
+        <v>0.47166666666666668</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B230" s="1">
+        <v>68</v>
+      </c>
+      <c r="C230" s="1">
+        <v>251</v>
+      </c>
+      <c r="D230" s="1">
+        <v>270</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="9"/>
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="10"/>
+        <v>0.38030303030303031</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B231" s="1">
+        <v>62</v>
+      </c>
+      <c r="C231" s="1">
+        <v>250</v>
+      </c>
+      <c r="D231" s="1">
+        <v>271</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="9"/>
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="10"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="11"/>
+        <v>0.45166666666666666</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B232" s="1">
+        <v>65</v>
+      </c>
+      <c r="C232" s="1">
+        <v>256</v>
+      </c>
+      <c r="D232" s="1">
+        <v>266</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="9"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="10"/>
+        <v>0.38787878787878788</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="11"/>
+        <v>0.44333333333333336</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B233" s="1">
+        <v>75</v>
+      </c>
+      <c r="C233" s="1">
+        <v>266</v>
+      </c>
+      <c r="D233" s="1">
+        <v>270</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="10"/>
+        <v>0.40303030303030302</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="11"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B234" s="1">
+        <v>74</v>
+      </c>
+      <c r="C234" s="1">
+        <v>259</v>
+      </c>
+      <c r="D234" s="1">
+        <v>272</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="9"/>
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="10"/>
+        <v>0.3924242424242424</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="11"/>
+        <v>0.45333333333333331</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B235" s="1">
+        <v>70</v>
+      </c>
+      <c r="C235" s="1">
+        <v>250</v>
+      </c>
+      <c r="D235" s="1">
+        <v>251</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="9"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="10"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="11"/>
+        <v>0.41833333333333333</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B236" s="1">
+        <v>70</v>
+      </c>
+      <c r="C236" s="1">
+        <v>250</v>
+      </c>
+      <c r="D236" s="1">
+        <v>251</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="9"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="10"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="11"/>
+        <v>0.41833333333333333</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B237" s="1">
+        <v>77</v>
+      </c>
+      <c r="C237" s="1">
+        <v>249</v>
+      </c>
+      <c r="D237" s="1">
+        <v>257</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="9"/>
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="10"/>
+        <v>0.37727272727272726</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="11"/>
+        <v>0.42833333333333334</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B238" s="1">
+        <v>77</v>
+      </c>
+      <c r="C238" s="1">
+        <v>227</v>
+      </c>
+      <c r="D238" s="1">
+        <v>241</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="9"/>
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="10"/>
+        <v>0.34393939393939393</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="11"/>
+        <v>0.40166666666666667</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B239" s="1">
+        <v>77</v>
+      </c>
+      <c r="C239" s="1">
+        <v>218</v>
+      </c>
+      <c r="D239" s="1">
+        <v>230</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="9"/>
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="10"/>
+        <v>0.33030303030303032</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="11"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B240" s="1">
+        <v>65</v>
+      </c>
+      <c r="C240" s="1">
+        <v>193</v>
+      </c>
+      <c r="D240" s="1">
+        <v>202</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="9"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="10"/>
+        <v>0.29242424242424242</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="11"/>
+        <v>0.33666666666666667</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B241" s="1">
+        <v>65</v>
+      </c>
+      <c r="C241" s="1">
+        <v>193</v>
+      </c>
+      <c r="D241" s="1">
+        <v>201</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="9"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="10"/>
+        <v>0.29242424242424242</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="11"/>
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B242" s="1">
+        <v>65</v>
+      </c>
+      <c r="C242" s="1">
+        <v>184</v>
+      </c>
+      <c r="D242" s="1">
+        <v>191</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="9"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="10"/>
+        <v>0.27878787878787881</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="11"/>
+        <v>0.31833333333333336</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B243" s="1">
+        <v>50</v>
+      </c>
+      <c r="C243" s="1">
+        <v>175</v>
+      </c>
+      <c r="D243" s="1">
+        <v>179</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="9"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="10"/>
+        <v>0.26515151515151514</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="11"/>
+        <v>0.29833333333333334</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B244" s="1">
+        <v>41</v>
+      </c>
+      <c r="C244" s="1">
+        <v>153</v>
+      </c>
+      <c r="D244" s="1">
+        <v>165</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="9"/>
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="10"/>
+        <v>0.23181818181818181</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="11"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B245" s="1">
+        <v>41</v>
+      </c>
+      <c r="C245" s="1">
+        <v>133</v>
+      </c>
+      <c r="D245" s="1">
+        <v>144</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="9"/>
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="10"/>
+        <v>0.20151515151515151</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="11"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B246" s="1">
+        <v>37</v>
+      </c>
+      <c r="C246" s="1">
+        <v>106</v>
+      </c>
+      <c r="D246" s="1">
+        <v>116</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="9"/>
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="10"/>
+        <v>0.16060606060606061</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="11"/>
+        <v>0.19333333333333333</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B247" s="1">
+        <v>37</v>
+      </c>
+      <c r="C247" s="1">
+        <v>104</v>
+      </c>
+      <c r="D247" s="1">
+        <v>109</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="9"/>
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="10"/>
+        <v>0.15757575757575756</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="11"/>
+        <v>0.18166666666666667</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B248" s="1">
+        <v>35</v>
+      </c>
+      <c r="C248" s="1">
+        <v>104</v>
+      </c>
+      <c r="D248" s="1">
+        <v>105</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="9"/>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="10"/>
+        <v>0.15757575757575756</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B249" s="1">
+        <v>34</v>
+      </c>
+      <c r="C249" s="1">
+        <v>87</v>
+      </c>
+      <c r="D249" s="1">
+        <v>96</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="9"/>
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="10"/>
+        <v>0.13181818181818181</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B250" s="1">
+        <v>22</v>
+      </c>
+      <c r="C250" s="1">
+        <v>76</v>
+      </c>
+      <c r="D250" s="1">
+        <v>96</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="9"/>
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="10"/>
+        <v>0.11515151515151516</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B251" s="1">
+        <v>20</v>
+      </c>
+      <c r="C251" s="1">
+        <v>68</v>
+      </c>
+      <c r="D251" s="1">
+        <v>88</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="10"/>
+        <v>0.10303030303030303</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="11"/>
+        <v>0.14666666666666667</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B252" s="1">
+        <v>19</v>
+      </c>
+      <c r="C252" s="1">
+        <v>67</v>
+      </c>
+      <c r="D252" s="1">
+        <v>84</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="9"/>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="10"/>
+        <v>0.10151515151515152</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B253" s="1">
+        <v>19</v>
+      </c>
+      <c r="C253" s="1">
+        <v>63</v>
+      </c>
+      <c r="D253" s="1">
+        <v>76</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="9"/>
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="10"/>
+        <v>9.5454545454545459E-2</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="11"/>
+        <v>0.12666666666666668</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B254" s="1">
+        <v>15</v>
+      </c>
+      <c r="C254" s="1">
+        <v>43</v>
+      </c>
+      <c r="D254" s="1">
+        <v>65</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="9"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="10"/>
+        <v>6.5151515151515155E-2</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="11"/>
+        <v>0.10833333333333334</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B255" s="1">
+        <v>15</v>
+      </c>
+      <c r="C255" s="1">
+        <v>43</v>
+      </c>
+      <c r="D255" s="1">
+        <v>65</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="9"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="10"/>
+        <v>6.5151515151515155E-2</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="11"/>
+        <v>0.10833333333333334</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B256" s="1">
+        <v>15</v>
+      </c>
+      <c r="C256" s="1">
+        <v>38</v>
+      </c>
+      <c r="D256" s="1">
+        <v>48</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="9"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="10"/>
+        <v>5.7575757575757579E-2</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B257" s="1">
+        <v>9</v>
+      </c>
+      <c r="C257" s="1">
+        <v>19</v>
+      </c>
+      <c r="D257" s="1">
+        <v>38</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="9"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="10"/>
+        <v>2.8787878787878789E-2</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="11"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B258" s="1">
+        <v>9</v>
+      </c>
+      <c r="C258" s="1">
+        <v>19</v>
+      </c>
+      <c r="D258" s="1">
+        <v>35</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="9"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="10"/>
+        <v>2.8787878787878789E-2</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="11"/>
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B259" s="1">
+        <v>9</v>
+      </c>
+      <c r="C259" s="1">
+        <v>19</v>
+      </c>
+      <c r="D259" s="1">
+        <v>35</v>
+      </c>
+      <c r="F259">
+        <f t="shared" ref="F259:F276" si="12">B259/480</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ref="G259:G276" si="13">C259/660</f>
+        <v>2.8787878787878789E-2</v>
+      </c>
+      <c r="H259">
+        <f t="shared" ref="H259:H276" si="14">D259/600</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="C260" s="1">
+        <v>17</v>
+      </c>
+      <c r="D260" s="1">
+        <v>26</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="14"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+      <c r="C261" s="1">
+        <v>17</v>
+      </c>
+      <c r="D261" s="1">
+        <v>23</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="14"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262" s="1">
+        <v>17</v>
+      </c>
+      <c r="D262" s="1">
+        <v>23</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="14"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+      <c r="C263" s="1">
+        <v>17</v>
+      </c>
+      <c r="D263" s="1">
+        <v>23</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="14"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" s="1">
+        <v>17</v>
+      </c>
+      <c r="D264" s="1">
+        <v>23</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="14"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="C265" s="1">
+        <v>17</v>
+      </c>
+      <c r="D265" s="1">
+        <v>23</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="13"/>
+        <v>2.5757575757575757E-2</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="14"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="C266" s="1">
+        <v>13</v>
+      </c>
+      <c r="D266" s="1">
+        <v>19</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="13"/>
+        <v>1.9696969696969695E-2</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="14"/>
+        <v>3.1666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" s="1">
+        <v>13</v>
+      </c>
+      <c r="D267" s="1">
+        <v>19</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="13"/>
+        <v>1.9696969696969695E-2</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="14"/>
+        <v>3.1666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="C268" s="1">
+        <v>9</v>
+      </c>
+      <c r="D268" s="1">
+        <v>15</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="C269" s="1">
+        <v>9</v>
+      </c>
+      <c r="D269" s="1">
+        <v>15</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="C270" s="1">
+        <v>9</v>
+      </c>
+      <c r="D270" s="1">
+        <v>15</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271" s="1">
+        <v>9</v>
+      </c>
+      <c r="D271" s="1">
+        <v>15</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="C272" s="1">
+        <v>9</v>
+      </c>
+      <c r="D272" s="1">
+        <v>15</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+      <c r="C273" s="1">
+        <v>9</v>
+      </c>
+      <c r="D273" s="1">
+        <v>15</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B274" s="1">
+        <v>0</v>
+      </c>
+      <c r="C274" s="1">
+        <v>9</v>
+      </c>
+      <c r="D274" s="1">
+        <v>15</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="13"/>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+      <c r="C275" s="1">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>7</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="13"/>
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="14"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B276" s="1">
+        <v>0</v>
+      </c>
+      <c r="C276" s="1">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1">
+        <v>7</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="13"/>
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="14"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>